--- a/raw_data/20200818_saline/20200818_Sensor0_Test_75.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_75.xlsx
@@ -1,628 +1,1044 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFE40CF-0E51-4B43-BAAC-7C7B8634DA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>66602.902990</v>
+        <v>66602.902990000002</v>
       </c>
       <c r="B2" s="1">
-        <v>18.500806</v>
+        <v>18.500806000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>900.017000</v>
+        <v>900.01700000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.120000</v>
+        <v>-197.12</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>66613.318020</v>
+        <v>66613.318020000006</v>
       </c>
       <c r="G2" s="1">
-        <v>18.503699</v>
+        <v>18.503699000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>917.846000</v>
+        <v>917.846</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.819000</v>
+        <v>-167.81899999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>66623.752818</v>
+        <v>66623.752817999994</v>
       </c>
       <c r="L2" s="1">
         <v>18.506598</v>
       </c>
       <c r="M2" s="1">
-        <v>940.483000</v>
+        <v>940.48299999999995</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.273000</v>
+        <v>-120.273</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>66634.284875</v>
+        <v>66634.284874999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.509524</v>
+        <v>18.509523999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>947.314000</v>
+        <v>947.31399999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.685000</v>
+        <v>-104.685</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>66644.865527</v>
+        <v>66644.865527000002</v>
       </c>
       <c r="V2" s="1">
         <v>18.512463</v>
       </c>
       <c r="W2" s="1">
-        <v>954.079000</v>
+        <v>954.07899999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.623100</v>
+        <v>-90.623099999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>66655.629230</v>
+        <v>66655.629230000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.515453</v>
+        <v>18.515453000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.409000</v>
+        <v>961.40899999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.702500</v>
+        <v>-80.702500000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>66666.160265</v>
+        <v>66666.160264999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.518378</v>
+        <v>18.518377999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.315000</v>
+        <v>966.31500000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.090100</v>
+        <v>-80.090100000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>66676.576749</v>
       </c>
       <c r="AK2" s="1">
-        <v>18.521271</v>
+        <v>18.521270999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.221000</v>
+        <v>974.221</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.551800</v>
+        <v>-87.5518</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>66687.114254</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.524198</v>
+        <v>18.524197999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.283000</v>
+        <v>983.28300000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.285000</v>
+        <v>-102.285</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>66698.117009</v>
+        <v>66698.117008999994</v>
       </c>
       <c r="AU2" s="1">
         <v>18.527255</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.567000</v>
+        <v>994.56700000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.662000</v>
+        <v>-123.66200000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>66709.251697</v>
@@ -631,255 +1047,255 @@
         <v>18.530348</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.324000</v>
+        <v>-142.32400000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>66719.890884</v>
+        <v>66719.890883999993</v>
       </c>
       <c r="BE2" s="1">
         <v>18.533303</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.968000</v>
+        <v>-226.96799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>66730.616374</v>
+        <v>66730.616374000005</v>
       </c>
       <c r="BJ2" s="1">
         <v>18.536282</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.120000</v>
+        <v>1129.1199999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.306000</v>
+        <v>-362.30599999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>66741.002599</v>
+        <v>66741.002598999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.539167</v>
+        <v>18.539166999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1261.260000</v>
+        <v>1261.26</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-570.030000</v>
+        <v>-570.03</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>66751.746442</v>
+        <v>66751.746442000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.542152</v>
+        <v>18.542152000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1409.190000</v>
+        <v>1409.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-790.869000</v>
+        <v>-790.86900000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>66762.450602</v>
+        <v>66762.450601999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.545125</v>
+        <v>18.545124999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1569.940000</v>
+        <v>1569.94</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1020.540000</v>
+        <v>-1020.54</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>66774.101628</v>
+        <v>66774.101628000004</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.548362</v>
+        <v>18.548362000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1972.980000</v>
+        <v>1972.98</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1557.890000</v>
+        <v>-1557.89</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>66603.273997</v>
+        <v>66603.273996999997</v>
       </c>
       <c r="B3" s="1">
         <v>18.500909</v>
       </c>
       <c r="C3" s="1">
-        <v>899.935000</v>
+        <v>899.93499999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.102000</v>
+        <v>-197.102</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>66613.679569</v>
       </c>
       <c r="G3" s="1">
-        <v>18.503800</v>
+        <v>18.503799999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>917.534000</v>
+        <v>917.53399999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.420000</v>
+        <v>-167.42</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>66624.138242</v>
+        <v>66624.138242000001</v>
       </c>
       <c r="L3" s="1">
         <v>18.506705</v>
       </c>
       <c r="M3" s="1">
-        <v>940.678000</v>
+        <v>940.678</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.097000</v>
+        <v>-120.09699999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>66635.017495</v>
+        <v>66635.017494999993</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.509727</v>
+        <v>18.509727000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>947.320000</v>
+        <v>947.32</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.669000</v>
+        <v>-104.669</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>66645.581750</v>
+        <v>66645.581749999998</v>
       </c>
       <c r="V3" s="1">
-        <v>18.512662</v>
+        <v>18.512661999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>953.993000</v>
+        <v>953.99300000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.736500</v>
+        <v>-90.736500000000007</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>66655.970983</v>
+        <v>66655.970983000007</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.515547</v>
+        <v>18.515547000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.368000</v>
+        <v>961.36800000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.729000</v>
+        <v>-80.728999999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>66666.507961</v>
+        <v>66666.507960999996</v>
       </c>
       <c r="AF3" s="1">
-        <v>18.518474</v>
+        <v>18.518474000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.364000</v>
+        <v>966.36400000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.110900</v>
+        <v>-80.110900000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>66676.934363</v>
+        <v>66676.934362999993</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.521371</v>
+        <v>18.521370999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.229000</v>
+        <v>974.22900000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.532500</v>
+        <v>-87.532499999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>66687.812621</v>
+        <v>66687.812621000005</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.524392</v>
+        <v>18.524391999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.268000</v>
+        <v>983.26800000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.277000</v>
+        <v>-102.277</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>66698.563417</v>
+        <v>66698.563416999998</v>
       </c>
       <c r="AU3" s="1">
         <v>18.527379</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.533000</v>
+        <v>994.53300000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.656000</v>
+        <v>-123.65600000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>66709.653456</v>
@@ -888,1857 +1304,1857 @@
         <v>18.530459</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.080000</v>
+        <v>1004.08</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.324000</v>
+        <v>-142.32400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>66720.253954</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.533404</v>
+        <v>18.533404000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.955000</v>
+        <v>-226.95500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>66731.000772</v>
+        <v>66731.000771999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>18.536389</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.130000</v>
+        <v>1129.1300000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.318000</v>
+        <v>-362.31799999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>66741.420230</v>
+        <v>66741.420230000003</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.539283</v>
+        <v>18.539283000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1261.290000</v>
+        <v>1261.29</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-570.100000</v>
+        <v>-570.1</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>66752.185437</v>
+        <v>66752.185436999993</v>
       </c>
       <c r="BT3" s="1">
-        <v>18.542274</v>
+        <v>18.542273999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1409.250000</v>
+        <v>1409.25</v>
       </c>
       <c r="BV3" s="1">
-        <v>-790.900000</v>
+        <v>-790.9</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>66762.913868</v>
+        <v>66762.913868000003</v>
       </c>
       <c r="BY3" s="1">
         <v>18.545254</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1569.730000</v>
+        <v>1569.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1020.570000</v>
+        <v>-1020.57</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>66774.382891</v>
+        <v>66774.382891000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.548440</v>
+        <v>18.548439999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1974.170000</v>
+        <v>1974.17</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1556.980000</v>
+        <v>-1556.98</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>66603.618718</v>
+        <v>66603.618717999998</v>
       </c>
       <c r="B4" s="1">
-        <v>18.501005</v>
+        <v>18.501004999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>900.029000</v>
+        <v>900.029</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.202000</v>
+        <v>-197.202</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>66614.366559</v>
+        <v>66614.366559000002</v>
       </c>
       <c r="G4" s="1">
-        <v>18.503991</v>
+        <v>18.503990999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>917.655000</v>
+        <v>917.65499999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.347000</v>
+        <v>-167.34700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>66624.826656</v>
+        <v>66624.826656000005</v>
       </c>
       <c r="L4" s="1">
-        <v>18.506896</v>
+        <v>18.506896000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>940.532000</v>
+        <v>940.53200000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.156000</v>
+        <v>-120.15600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>66635.366178</v>
+        <v>66635.366177999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.509824</v>
+        <v>18.509823999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>947.367000</v>
+        <v>947.36699999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.664000</v>
+        <v>-104.664</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>66645.923532</v>
+        <v>66645.923532000001</v>
       </c>
       <c r="V4" s="1">
-        <v>18.512757</v>
+        <v>18.512757000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>954.096000</v>
+        <v>954.096</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.751000</v>
+        <v>-90.751000000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>66656.318647</v>
+        <v>66656.318646999993</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.515644</v>
+        <v>18.515644000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.449000</v>
+        <v>961.44899999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.690100</v>
+        <v>-80.690100000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>66667.160201</v>
+        <v>66667.160201000006</v>
       </c>
       <c r="AF4" s="1">
         <v>18.518656</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.283000</v>
+        <v>966.28300000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.056200</v>
+        <v>-80.056200000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>66677.592555</v>
+        <v>66677.592554999996</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.521553</v>
+        <v>18.521553000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.211000</v>
+        <v>974.21100000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.549900</v>
+        <v>-87.549899999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>66688.227276</v>
+        <v>66688.227276000005</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.524508</v>
+        <v>18.524508000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.298000</v>
+        <v>983.298</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.257000</v>
+        <v>-102.25700000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>66698.896257</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.527471</v>
+        <v>18.527470999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.548000</v>
+        <v>994.548</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.668000</v>
+        <v>-123.66800000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>66710.009089</v>
+        <v>66710.009088999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.530558</v>
+        <v>18.530557999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.080000</v>
+        <v>1004.08</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.326000</v>
+        <v>-142.32599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>66720.615539</v>
+        <v>66720.615539000006</v>
       </c>
       <c r="BE4" s="1">
-        <v>18.533504</v>
+        <v>18.533504000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.946000</v>
+        <v>-226.946</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>66731.401541</v>
+        <v>66731.401540999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.536500</v>
+        <v>18.5365</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.130000</v>
+        <v>1129.1300000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.323000</v>
+        <v>-362.32299999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>66741.847819</v>
+        <v>66741.847819000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.539402</v>
+        <v>18.539401999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1261.300000</v>
+        <v>1261.3</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-570.112000</v>
+        <v>-570.11199999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>66752.610969</v>
+        <v>66752.610969000001</v>
       </c>
       <c r="BT4" s="1">
         <v>18.542392</v>
       </c>
       <c r="BU4" s="1">
-        <v>1409.170000</v>
+        <v>1409.17</v>
       </c>
       <c r="BV4" s="1">
-        <v>-790.829000</v>
+        <v>-790.82899999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>66763.362776</v>
+        <v>66763.362775999994</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.545379</v>
+        <v>18.545379000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1569.820000</v>
+        <v>1569.82</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1020.610000</v>
+        <v>-1020.61</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>66774.904155</v>
+        <v>66774.904154999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>18.548584</v>
+        <v>18.548584000000002</v>
       </c>
       <c r="CE4" s="1">
-        <v>1973.220000</v>
+        <v>1973.22</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1555.810000</v>
+        <v>-1555.81</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>66604.302235</v>
+        <v>66604.302234999996</v>
       </c>
       <c r="B5" s="1">
-        <v>18.501195</v>
+        <v>18.501194999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>900.238000</v>
+        <v>900.23800000000006</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.042000</v>
+        <v>-197.042</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>66614.713726</v>
+        <v>66614.713726000002</v>
       </c>
       <c r="G5" s="1">
-        <v>18.504087</v>
+        <v>18.504086999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>917.778000</v>
+        <v>917.77800000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.527000</v>
+        <v>-167.52699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>66625.173888</v>
+        <v>66625.173888000005</v>
       </c>
       <c r="L5" s="1">
-        <v>18.506993</v>
+        <v>18.506993000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>940.683000</v>
+        <v>940.68299999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.162000</v>
+        <v>-120.16200000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>66635.715858</v>
+        <v>66635.715857999996</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.509921</v>
+        <v>18.509920999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>947.370000</v>
+        <v>947.37</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.679000</v>
+        <v>-104.679</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>66646.266228</v>
+        <v>66646.266227999993</v>
       </c>
       <c r="V5" s="1">
-        <v>18.512852</v>
+        <v>18.512851999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>954.024000</v>
+        <v>954.024</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.667700</v>
+        <v>-90.667699999999996</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>66656.989739</v>
+        <v>66656.989738999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.515830</v>
+        <v>18.515830000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.310000</v>
+        <v>961.31</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.795400</v>
+        <v>-80.795400000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>66667.537160</v>
+        <v>66667.537160000007</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.518760</v>
+        <v>18.51876</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.318000</v>
+        <v>966.31799999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.038500</v>
+        <v>-80.038499999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>66677.982410</v>
+        <v>66677.982409999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.521662</v>
+        <v>18.521661999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.196000</v>
+        <v>974.19600000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.557800</v>
+        <v>-87.5578</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>66688.606716</v>
+        <v>66688.606715999995</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.524613</v>
+        <v>18.524612999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.292000</v>
+        <v>983.29200000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>66699.258815</v>
+        <v>66699.258814999994</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.527572</v>
+        <v>18.527571999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.540000</v>
+        <v>994.54</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.662000</v>
+        <v>-123.66200000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>66710.372191</v>
+        <v>66710.372191000002</v>
       </c>
       <c r="AZ5" s="1">
         <v>18.530659</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.318000</v>
+        <v>-142.31800000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>66721.041137</v>
+        <v>66721.041136999993</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.533623</v>
+        <v>18.533622999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.950000</v>
+        <v>-226.95</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>66731.821651</v>
+        <v>66731.821651000006</v>
       </c>
       <c r="BJ5" s="1">
         <v>18.536617</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.120000</v>
+        <v>1129.1199999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.309000</v>
+        <v>-362.30900000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>66742.225266</v>
+        <v>66742.225265999994</v>
       </c>
       <c r="BO5" s="1">
         <v>18.539507</v>
       </c>
       <c r="BP5" s="1">
-        <v>1261.280000</v>
+        <v>1261.28</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-570.115000</v>
+        <v>-570.11500000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>66753.023181</v>
+        <v>66753.023180999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.542506</v>
+        <v>18.542505999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1409.220000</v>
+        <v>1409.22</v>
       </c>
       <c r="BV5" s="1">
-        <v>-790.763000</v>
+        <v>-790.76300000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>66763.793768</v>
+        <v>66763.793768000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>18.545498</v>
+        <v>18.545497999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1569.760000</v>
+        <v>1569.76</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1020.620000</v>
+        <v>-1020.62</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>66775.422009</v>
+        <v>66775.422009000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.548728</v>
+        <v>18.548728000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1972.150000</v>
+        <v>1972.15</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1556.980000</v>
+        <v>-1556.98</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>66604.641963</v>
+        <v>66604.641963000002</v>
       </c>
       <c r="B6" s="1">
         <v>18.501289</v>
       </c>
       <c r="C6" s="1">
-        <v>900.024000</v>
+        <v>900.024</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.238000</v>
+        <v>-197.238</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>66615.060431</v>
+        <v>66615.060431000005</v>
       </c>
       <c r="G6" s="1">
-        <v>18.504183</v>
+        <v>18.504183000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>917.432000</v>
+        <v>917.43200000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.850000</v>
+        <v>-167.85</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>66625.518079</v>
+        <v>66625.518079000001</v>
       </c>
       <c r="L6" s="1">
         <v>18.507088</v>
       </c>
       <c r="M6" s="1">
-        <v>940.604000</v>
+        <v>940.60400000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.055000</v>
+        <v>-120.05500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>66636.377490</v>
+        <v>66636.377489999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.510105</v>
+        <v>18.510104999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>947.381000</v>
+        <v>947.38099999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.702000</v>
+        <v>-104.702</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>66646.997360</v>
+        <v>66646.997359999994</v>
       </c>
       <c r="V6" s="1">
-        <v>18.513055</v>
+        <v>18.513055000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.998000</v>
+        <v>953.99800000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.574300</v>
+        <v>-90.574299999999994</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>66657.367190</v>
+        <v>66657.367190000004</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.515935</v>
+        <v>18.515934999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.362000</v>
+        <v>961.36199999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.759200</v>
+        <v>-80.759200000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>66667.881415</v>
+        <v>66667.881414999996</v>
       </c>
       <c r="AF6" s="1">
         <v>18.518856</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.377000</v>
+        <v>966.37699999999995</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.122800</v>
+        <v>-80.122799999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>66678.328122</v>
+        <v>66678.328122000006</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.521758</v>
+        <v>18.521757999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.209000</v>
+        <v>974.20899999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.548000</v>
+        <v>-87.548000000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>66688.968299</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.524713</v>
+        <v>18.524712999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.289000</v>
+        <v>983.28899999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.269000</v>
+        <v>-102.26900000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>66699.675933</v>
+        <v>66699.675933000006</v>
       </c>
       <c r="AU6" s="1">
-        <v>18.527688</v>
+        <v>18.527688000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.534000</v>
+        <v>994.53399999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.672000</v>
+        <v>-123.672</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>66710.792768</v>
+        <v>66710.792767999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.530776</v>
+        <v>18.530775999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.070000</v>
+        <v>1004.07</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.313000</v>
+        <v>-142.31299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>66721.336261</v>
+        <v>66721.336261000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.533705</v>
+        <v>18.533705000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.959000</v>
+        <v>-226.959</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>66732.164920</v>
+        <v>66732.164919999996</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.536712</v>
+        <v>18.536712000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.140000</v>
+        <v>1129.1400000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.334000</v>
+        <v>-362.334</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>66742.647861</v>
+        <v>66742.647861000005</v>
       </c>
       <c r="BO6" s="1">
         <v>18.539624</v>
       </c>
       <c r="BP6" s="1">
-        <v>1261.310000</v>
+        <v>1261.31</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-570.133000</v>
+        <v>-570.13300000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>66753.455195</v>
+        <v>66753.455195000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.542626</v>
+        <v>18.542625999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1409.110000</v>
+        <v>1409.11</v>
       </c>
       <c r="BV6" s="1">
-        <v>-790.763000</v>
+        <v>-790.76300000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>66764.216360</v>
+        <v>66764.216360000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.545616</v>
+        <v>18.545615999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1569.730000</v>
+        <v>1569.73</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1020.640000</v>
+        <v>-1020.64</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>66775.938841</v>
+        <v>66775.938840999996</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.548872</v>
+        <v>18.548871999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1971.930000</v>
+        <v>1971.93</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1556.910000</v>
+        <v>-1556.91</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>66604.984202</v>
+        <v>66604.984202000007</v>
       </c>
       <c r="B7" s="1">
-        <v>18.501385</v>
+        <v>18.501384999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>900.017000</v>
+        <v>900.01700000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.285000</v>
+        <v>-197.285</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>66615.709692</v>
+        <v>66615.709692000004</v>
       </c>
       <c r="G7" s="1">
-        <v>18.504364</v>
+        <v>18.504363999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>917.354000</v>
+        <v>917.35400000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.747000</v>
+        <v>-167.74700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>66626.188174</v>
+        <v>66626.188173999995</v>
       </c>
       <c r="L7" s="1">
-        <v>18.507274</v>
+        <v>18.507273999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>940.598000</v>
+        <v>940.59799999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.265000</v>
+        <v>-120.265</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>66636.761393</v>
+        <v>66636.761392999993</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.510211</v>
+        <v>18.510211000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>947.337000</v>
+        <v>947.33699999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.689000</v>
+        <v>-104.68899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>66647.324764</v>
+        <v>66647.324764000005</v>
       </c>
       <c r="V7" s="1">
-        <v>18.513146</v>
+        <v>18.513145999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>953.970000</v>
+        <v>953.97</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.683100</v>
+        <v>-90.683099999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>66657.716901</v>
+        <v>66657.716901000007</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.516032</v>
+        <v>18.516031999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.333000</v>
+        <v>961.33299999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.756800</v>
+        <v>-80.756799999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>66668.225609</v>
+        <v>66668.225609000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.518952</v>
+        <v>18.518951999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.336000</v>
+        <v>966.33600000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.090200</v>
+        <v>-80.090199999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>66678.676842</v>
+        <v>66678.676842000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.521855</v>
+        <v>18.521854999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.198000</v>
+        <v>974.19799999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.552500</v>
+        <v>-87.552499999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>66689.388412</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.524830</v>
+        <v>18.524830000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.278000</v>
+        <v>983.27800000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.275000</v>
+        <v>-102.27500000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>66699.992878</v>
+        <v>66699.992878000005</v>
       </c>
       <c r="AU7" s="1">
-        <v>18.527776</v>
+        <v>18.527775999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.539000</v>
+        <v>994.53899999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.657000</v>
+        <v>-123.657</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>66711.087390</v>
+        <v>66711.087390000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.530858</v>
+        <v>18.530857999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.310000</v>
+        <v>-142.31</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>66721.700289</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.533806</v>
+        <v>18.533805999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.953000</v>
+        <v>-226.953</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>66732.523987</v>
+        <v>66732.523986999993</v>
       </c>
       <c r="BJ7" s="1">
-        <v>18.536812</v>
+        <v>18.536812000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.130000</v>
+        <v>1129.1300000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.347000</v>
+        <v>-362.34699999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>66743.042645</v>
+        <v>66743.042644999994</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.539734</v>
+        <v>18.539733999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1261.300000</v>
+        <v>1261.3</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-570.092000</v>
+        <v>-570.09199999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>66753.882016</v>
+        <v>66753.882016000003</v>
       </c>
       <c r="BT7" s="1">
         <v>18.542745</v>
       </c>
       <c r="BU7" s="1">
-        <v>1409.180000</v>
+        <v>1409.18</v>
       </c>
       <c r="BV7" s="1">
-        <v>-790.684000</v>
+        <v>-790.68399999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>66764.636967</v>
+        <v>66764.636966999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>18.545732</v>
+        <v>18.545732000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1569.630000</v>
+        <v>1569.63</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1020.820000</v>
+        <v>-1020.82</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>66776.488872</v>
+        <v>66776.488872000002</v>
       </c>
       <c r="CD7" s="1">
         <v>18.549025</v>
       </c>
       <c r="CE7" s="1">
-        <v>1972.840000</v>
+        <v>1972.84</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1556.290000</v>
+        <v>-1556.29</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>66605.627513</v>
+        <v>66605.627512999999</v>
       </c>
       <c r="B8" s="1">
-        <v>18.501563</v>
+        <v>18.501563000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>899.972000</v>
+        <v>899.97199999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.008000</v>
+        <v>-197.00800000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>66616.094589</v>
       </c>
       <c r="G8" s="1">
-        <v>18.504471</v>
+        <v>18.504470999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>917.699000</v>
+        <v>917.69899999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.257000</v>
+        <v>-167.25700000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>66626.554222</v>
+        <v>66626.554222000006</v>
       </c>
       <c r="L8" s="1">
-        <v>18.507376</v>
+        <v>18.507376000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>940.593000</v>
+        <v>940.59299999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.160000</v>
+        <v>-120.16</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>66637.107137</v>
+        <v>66637.107136999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.510308</v>
+        <v>18.510307999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>947.323000</v>
+        <v>947.32299999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.676000</v>
+        <v>-104.676</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>66647.649075</v>
+        <v>66647.649074999994</v>
       </c>
       <c r="V8" s="1">
-        <v>18.513236</v>
+        <v>18.513235999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>954.092000</v>
+        <v>954.09199999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.644800</v>
+        <v>-90.644800000000004</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>66658.063108</v>
+        <v>66658.063108000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.516129</v>
+        <v>18.516128999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.462000</v>
+        <v>961.46199999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.715800</v>
+        <v>-80.715800000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>66668.652166</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.519070</v>
+        <v>18.519069999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.340000</v>
+        <v>966.34</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.085900</v>
+        <v>-80.085899999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>66679.108367</v>
+        <v>66679.108366999993</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.521975</v>
+        <v>18.521975000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.232000</v>
+        <v>974.23199999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.560900</v>
+        <v>-87.560900000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>66689.686512</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.524913</v>
+        <v>18.524913000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.315000</v>
+        <v>983.31500000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.294000</v>
+        <v>-102.294</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>66700.356472</v>
+        <v>66700.356471999999</v>
       </c>
       <c r="AU8" s="1">
         <v>18.527877</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.536000</v>
+        <v>994.53599999999994</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.654000</v>
+        <v>-123.654</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>66711.447518</v>
+        <v>66711.447518000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.530958</v>
+        <v>18.530957999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.317000</v>
+        <v>-142.31700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>66722.050000</v>
+        <v>66722.05</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.533903</v>
+        <v>18.533902999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.950000</v>
+        <v>-226.95</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>66733.112737</v>
+        <v>66733.112737000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.536976</v>
+        <v>18.536975999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.160000</v>
+        <v>1129.1600000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.312000</v>
+        <v>-362.31200000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>66743.465733</v>
+        <v>66743.465733000005</v>
       </c>
       <c r="BO8" s="1">
         <v>18.539852</v>
       </c>
       <c r="BP8" s="1">
-        <v>1261.280000</v>
+        <v>1261.28</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-570.105000</v>
+        <v>-570.10500000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>66754.293429</v>
+        <v>66754.293428999998</v>
       </c>
       <c r="BT8" s="1">
         <v>18.542859</v>
       </c>
       <c r="BU8" s="1">
-        <v>1409.070000</v>
+        <v>1409.07</v>
       </c>
       <c r="BV8" s="1">
-        <v>-790.718000</v>
+        <v>-790.71799999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>66765.061047</v>
+        <v>66765.061046999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.545850</v>
+        <v>18.545850000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1569.780000</v>
+        <v>1569.78</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1020.650000</v>
+        <v>-1020.65</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>66777.020087</v>
+        <v>66777.020086999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.549172</v>
+        <v>18.549171999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1972.410000</v>
+        <v>1972.41</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1557.550000</v>
+        <v>-1557.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>66606.007945</v>
+        <v>66606.007945000005</v>
       </c>
       <c r="B9" s="1">
         <v>18.501669</v>
       </c>
       <c r="C9" s="1">
-        <v>899.976000</v>
+        <v>899.976</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.067000</v>
+        <v>-197.06700000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>66616.435869</v>
+        <v>66616.435868999994</v>
       </c>
       <c r="G9" s="1">
-        <v>18.504566</v>
+        <v>18.504566000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>917.250000</v>
+        <v>917.25</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.544000</v>
+        <v>-167.54400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>66626.899935</v>
+        <v>66626.899934999994</v>
       </c>
       <c r="L9" s="1">
         <v>18.507472</v>
       </c>
       <c r="M9" s="1">
-        <v>940.401000</v>
+        <v>940.40099999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.164000</v>
+        <v>-120.164</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>66637.459274</v>
+        <v>66637.459273999993</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.510405</v>
+        <v>18.510404999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>947.337000</v>
+        <v>947.33699999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.688000</v>
+        <v>-104.688</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>66648.074748</v>
+        <v>66648.074747999999</v>
       </c>
       <c r="V9" s="1">
         <v>18.513354</v>
       </c>
       <c r="W9" s="1">
-        <v>953.984000</v>
+        <v>953.98400000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.694100</v>
+        <v>-90.694100000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>66658.491125</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.516248</v>
+        <v>18.516248000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.413000</v>
+        <v>961.41300000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.767700</v>
+        <v>-80.767700000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>66668.929927</v>
+        <v>66668.929927000005</v>
       </c>
       <c r="AF9" s="1">
         <v>18.519147</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.325000</v>
+        <v>966.32500000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.090100</v>
+        <v>-80.090100000000007</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>66679.378152</v>
+        <v>66679.378152000005</v>
       </c>
       <c r="AK9" s="1">
-        <v>18.522049</v>
+        <v>18.522048999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.235000</v>
+        <v>974.23500000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.526000</v>
+        <v>-87.525999999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>66690.049082</v>
+        <v>66690.049081999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.525014</v>
+        <v>18.525013999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.291000</v>
+        <v>983.29100000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.256000</v>
+        <v>-102.256</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>66700.721004</v>
+        <v>66700.721004000006</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.527978</v>
+        <v>18.527978000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.541000</v>
+        <v>994.54100000000005</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.657000</v>
+        <v>-123.657</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>66711.804638</v>
+        <v>66711.804638000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.531057</v>
+        <v>18.531057000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.080000</v>
+        <v>1004.08</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.326000</v>
+        <v>-142.32599999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>66722.787024</v>
+        <v>66722.787024000005</v>
       </c>
       <c r="BE9" s="1">
         <v>18.534108</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.987000</v>
+        <v>-226.98699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>66733.300556</v>
+        <v>66733.300556000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.537028</v>
+        <v>18.537027999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.140000</v>
+        <v>1129.1400000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.343000</v>
+        <v>-362.34300000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>66743.859555</v>
+        <v>66743.859555000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.539961</v>
+        <v>18.539961000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1261.280000</v>
+        <v>1261.28</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-570.125000</v>
+        <v>-570.125</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>66754.723926</v>
+        <v>66754.723926000006</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.542979</v>
+        <v>18.542978999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1409.060000</v>
+        <v>1409.06</v>
       </c>
       <c r="BV9" s="1">
-        <v>-790.681000</v>
+        <v>-790.68100000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>66765.508438</v>
+        <v>66765.508438000004</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.545975</v>
+        <v>18.545974999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1569.860000</v>
+        <v>1569.86</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1020.490000</v>
+        <v>-1020.49</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>66777.842486</v>
+        <v>66777.842485999994</v>
       </c>
       <c r="CD9" s="1">
         <v>18.549401</v>
       </c>
       <c r="CE9" s="1">
-        <v>1973.800000</v>
+        <v>1973.8</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1557.890000</v>
+        <v>-1557.89</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>66606.349222</v>
+        <v>66606.349222000004</v>
       </c>
       <c r="B10" s="1">
-        <v>18.501764</v>
+        <v>18.501764000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>900.013000</v>
+        <v>900.01300000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.067000</v>
+        <v>-197.06700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>66616.783567</v>
+        <v>66616.783567000006</v>
       </c>
       <c r="G10" s="1">
         <v>18.504662</v>
       </c>
       <c r="H10" s="1">
-        <v>917.690000</v>
+        <v>917.69</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.301000</v>
+        <v>-167.30099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>66627.248158</v>
+        <v>66627.248158000002</v>
       </c>
       <c r="L10" s="1">
         <v>18.507569</v>
       </c>
       <c r="M10" s="1">
-        <v>940.506000</v>
+        <v>940.50599999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.191000</v>
+        <v>-120.191</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>66637.877920</v>
+        <v>66637.877919999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.510522</v>
+        <v>18.510522000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>947.404000</v>
+        <v>947.404</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.615000</v>
+        <v>-104.61499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>66648.353393</v>
+        <v>66648.353392999998</v>
       </c>
       <c r="V10" s="1">
-        <v>18.513431</v>
+        <v>18.513431000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>954.027000</v>
+        <v>954.02700000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.693100</v>
+        <v>-90.693100000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>66658.763924</v>
+        <v>66658.763923999999</v>
       </c>
       <c r="AA10" s="1">
         <v>18.516323</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.472000</v>
+        <v>961.47199999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.829500</v>
+        <v>-80.829499999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>66669.271173</v>
+        <v>66669.271173000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.519242</v>
+        <v>18.519241999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.389000</v>
+        <v>966.38900000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.047600</v>
+        <v>-80.047600000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>66679.725847</v>
+        <v>66679.725846999994</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.522146</v>
+        <v>18.522145999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.201000</v>
+        <v>974.20100000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.536900</v>
+        <v>-87.536900000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>66690.412154</v>
+        <v>66690.412154000005</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.525114</v>
+        <v>18.525113999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.284000</v>
+        <v>983.28399999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.262000</v>
+        <v>-102.262</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>66701.451115</v>
+        <v>66701.451115000003</v>
       </c>
       <c r="AU10" s="1">
         <v>18.528181</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.557000</v>
+        <v>994.55700000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.664000</v>
+        <v>-123.664</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>66712.523805</v>
+        <v>66712.523805000004</v>
       </c>
       <c r="AZ10" s="1">
         <v>18.531257</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.080000</v>
+        <v>1004.08</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.304000</v>
+        <v>-142.304</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>66723.162527</v>
+        <v>66723.162526999993</v>
       </c>
       <c r="BE10" s="1">
         <v>18.534212</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.964000</v>
+        <v>-226.964</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>66733.675238</v>
+        <v>66733.675237999996</v>
       </c>
       <c r="BJ10" s="1">
         <v>18.537132</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.170000</v>
+        <v>1129.17</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.335000</v>
+        <v>-362.33499999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>66744.282147</v>
+        <v>66744.282147000005</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.540078</v>
+        <v>18.540078000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1261.260000</v>
+        <v>1261.26</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-570.087000</v>
+        <v>-570.08699999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>66755.461507</v>
@@ -2747,861 +3163,861 @@
         <v>18.543184</v>
       </c>
       <c r="BU10" s="1">
-        <v>1408.990000</v>
+        <v>1408.99</v>
       </c>
       <c r="BV10" s="1">
-        <v>-790.666000</v>
+        <v>-790.66600000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>66766.242549</v>
+        <v>66766.242549000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>18.546178</v>
+        <v>18.546178000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1569.750000</v>
+        <v>1569.75</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1020.650000</v>
+        <v>-1020.65</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>66778.053751</v>
+        <v>66778.053750999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.549459</v>
+        <v>18.549458999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1974.020000</v>
+        <v>1974.02</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1556.460000</v>
+        <v>-1556.46</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>66606.693430</v>
+        <v>66606.693429999999</v>
       </c>
       <c r="B11" s="1">
         <v>18.501859</v>
       </c>
       <c r="C11" s="1">
-        <v>900.001000</v>
+        <v>900.00099999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.087000</v>
+        <v>-197.08699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>66617.200212</v>
+        <v>66617.200211999996</v>
       </c>
       <c r="G11" s="1">
-        <v>18.504778</v>
+        <v>18.504778000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>917.713000</v>
+        <v>917.71299999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.563000</v>
+        <v>-167.56299999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>66627.669724</v>
+        <v>66627.669724000007</v>
       </c>
       <c r="L11" s="1">
         <v>18.507686</v>
       </c>
       <c r="M11" s="1">
-        <v>940.524000</v>
+        <v>940.524</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.247000</v>
+        <v>-120.247</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>66638.160112</v>
+        <v>66638.160111999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.510600</v>
+        <v>18.5106</v>
       </c>
       <c r="R11" s="1">
-        <v>947.385000</v>
+        <v>947.38499999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.677000</v>
+        <v>-104.67700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>66648.694675</v>
+        <v>66648.694675000006</v>
       </c>
       <c r="V11" s="1">
-        <v>18.513526</v>
+        <v>18.513525999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>954.013000</v>
+        <v>954.01300000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.740000</v>
+        <v>-90.74</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>66659.112148</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.516420</v>
+        <v>18.51642</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.329000</v>
+        <v>961.32899999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.835200</v>
+        <v>-80.8352</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>66669.615424</v>
+        <v>66669.615424000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.519338</v>
+        <v>18.519338000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.357000</v>
+        <v>966.35699999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.100100</v>
+        <v>-80.100099999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>66680.076519</v>
+        <v>66680.076518999995</v>
       </c>
       <c r="AK11" s="1">
         <v>18.522243</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.209000</v>
+        <v>974.20899999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.557200</v>
+        <v>-87.557199999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>66691.133833</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.525315</v>
+        <v>18.525314999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.286000</v>
+        <v>983.28599999999994</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.274000</v>
+        <v>-102.274</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>66701.839482</v>
+        <v>66701.839481999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.528289</v>
+        <v>18.528289000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.556000</v>
+        <v>994.55600000000004</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.666000</v>
+        <v>-123.666</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>66712.882909</v>
+        <v>66712.882909000007</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.531356</v>
+        <v>18.531355999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.319000</v>
+        <v>-142.31899999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>66723.524573</v>
+        <v>66723.524573000002</v>
       </c>
       <c r="BE11" s="1">
         <v>18.534312</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.941000</v>
+        <v>-226.941</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>66734.357199</v>
+        <v>66734.357199000005</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.537321</v>
+        <v>18.537320999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.120000</v>
+        <v>1129.1199999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.338000</v>
+        <v>-362.33800000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>66744.991427</v>
+        <v>66744.991427000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.540275</v>
+        <v>18.540275000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1261.250000</v>
+        <v>1261.25</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-570.142000</v>
+        <v>-570.14200000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>66755.596389</v>
+        <v>66755.596388999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.543221</v>
+        <v>18.543220999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1409.040000</v>
+        <v>1409.04</v>
       </c>
       <c r="BV11" s="1">
-        <v>-790.610000</v>
+        <v>-790.61</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>66766.790596</v>
+        <v>66766.790596000006</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.546331</v>
+        <v>18.546330999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1569.710000</v>
+        <v>1569.71</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1020.570000</v>
+        <v>-1020.57</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>66778.573557</v>
+        <v>66778.573556999996</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.549604</v>
+        <v>18.549603999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1974.060000</v>
+        <v>1974.06</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1556.690000</v>
+        <v>-1556.69</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>66607.121464</v>
+        <v>66607.121463999996</v>
       </c>
       <c r="B12" s="1">
-        <v>18.501978</v>
+        <v>18.501978000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>900.074000</v>
+        <v>900.07399999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.076000</v>
+        <v>-197.07599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>66617.471979</v>
+        <v>66617.471978999994</v>
       </c>
       <c r="G12" s="1">
-        <v>18.504853</v>
+        <v>18.504853000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>917.121000</v>
+        <v>917.12099999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.291000</v>
+        <v>-167.291</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>66627.961373</v>
+        <v>66627.961372999998</v>
       </c>
       <c r="L12" s="1">
-        <v>18.507767</v>
+        <v>18.507767000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>940.558000</v>
+        <v>940.55799999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.269000</v>
+        <v>-120.26900000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>66638.506847</v>
+        <v>66638.506846999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.510696</v>
+        <v>18.510695999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>947.386000</v>
+        <v>947.38599999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.701000</v>
+        <v>-104.70099999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>66649.040385</v>
       </c>
       <c r="V12" s="1">
-        <v>18.513622</v>
+        <v>18.513622000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>953.950000</v>
+        <v>953.95</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.669500</v>
+        <v>-90.669499999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>66659.458818</v>
+        <v>66659.458817999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.516516</v>
+        <v>18.516515999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.316000</v>
+        <v>961.31600000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.745400</v>
+        <v>-80.745400000000004</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>66670.303881</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.519529</v>
+        <v>18.519528999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.374000</v>
+        <v>966.37400000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.088700</v>
+        <v>-80.088700000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>66680.771414</v>
+        <v>66680.771414000003</v>
       </c>
       <c r="AK12" s="1">
         <v>18.522437</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.182000</v>
+        <v>974.18200000000002</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.551100</v>
+        <v>-87.551100000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>66691.511816</v>
+        <v>66691.511815999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.525420</v>
+        <v>18.52542</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.286000</v>
+        <v>983.28599999999994</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.277000</v>
+        <v>-102.277</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>66702.206027</v>
+        <v>66702.206026999993</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.528391</v>
+        <v>18.528390999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.518000</v>
+        <v>994.51800000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.652000</v>
+        <v>-123.652</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>66713.241517</v>
+        <v>66713.241517000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.531456</v>
+        <v>18.531455999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.311000</v>
+        <v>-142.31100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>66724.193181</v>
+        <v>66724.193180999995</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.534498</v>
+        <v>18.534497999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.930000</v>
+        <v>-226.93</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>66734.465361</v>
+        <v>66734.465360999995</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.537351</v>
+        <v>18.537351000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.120000</v>
+        <v>1129.1199999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.329000</v>
+        <v>-362.32900000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>66745.102035</v>
+        <v>66745.102035000004</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.540306</v>
+        <v>18.540306000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1261.320000</v>
+        <v>1261.32</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-570.131000</v>
+        <v>-570.13099999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>66756.007112</v>
+        <v>66756.007112000007</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.543335</v>
+        <v>18.543334999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.910000</v>
+        <v>1408.91</v>
       </c>
       <c r="BV12" s="1">
-        <v>-790.581000</v>
+        <v>-790.58100000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>66767.238980</v>
+        <v>66767.238979999995</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.546455</v>
+        <v>18.546455000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1569.760000</v>
+        <v>1569.76</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1020.720000</v>
+        <v>-1020.72</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>66779.124116</v>
+        <v>66779.124116000006</v>
       </c>
       <c r="CD12" s="1">
         <v>18.549757</v>
       </c>
       <c r="CE12" s="1">
-        <v>1973.690000</v>
+        <v>1973.69</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1557.720000</v>
+        <v>-1557.72</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>66607.384377</v>
+        <v>66607.384376999995</v>
       </c>
       <c r="B13" s="1">
-        <v>18.502051</v>
+        <v>18.502051000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>899.901000</v>
+        <v>899.90099999999995</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.226000</v>
+        <v>-197.226</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>66617.816699</v>
+        <v>66617.816699000003</v>
       </c>
       <c r="G13" s="1">
         <v>18.504949</v>
       </c>
       <c r="H13" s="1">
-        <v>917.598000</v>
+        <v>917.59799999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.181000</v>
+        <v>-167.18100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>66628.308572</v>
+        <v>66628.308571999994</v>
       </c>
       <c r="L13" s="1">
         <v>18.507863</v>
       </c>
       <c r="M13" s="1">
-        <v>940.613000</v>
+        <v>940.61300000000006</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.204000</v>
+        <v>-120.20399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>66638.857486</v>
+        <v>66638.857485999994</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.510794</v>
+        <v>18.510794000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>947.307000</v>
+        <v>947.30700000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.689000</v>
+        <v>-104.68899999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>66649.726849</v>
+        <v>66649.726848999999</v>
       </c>
       <c r="V13" s="1">
-        <v>18.513813</v>
+        <v>18.513812999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>954.153000</v>
+        <v>954.15300000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.618400</v>
+        <v>-90.618399999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>66660.154706</v>
+        <v>66660.154706000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.516710</v>
+        <v>18.51671</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.353000</v>
+        <v>961.35299999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.729200</v>
+        <v>-80.729200000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>66670.647077</v>
+        <v>66670.647077000001</v>
       </c>
       <c r="AF13" s="1">
         <v>18.519624</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.343000</v>
+        <v>966.34299999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.063500</v>
+        <v>-80.063500000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>66681.118614</v>
+        <v>66681.118614000006</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.522533</v>
+        <v>18.522532999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.199000</v>
+        <v>974.19899999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.540800</v>
+        <v>-87.540800000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>66691.871909</v>
+        <v>66691.871908999994</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.525520</v>
+        <v>18.52552</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.293000</v>
+        <v>983.29300000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.270000</v>
+        <v>-102.27</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>66702.888027</v>
+        <v>66702.888026999994</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.528580</v>
+        <v>18.528580000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.540000</v>
+        <v>994.54</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.633000</v>
+        <v>-123.633</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>66713.921565</v>
+        <v>66713.921564999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.531645</v>
+        <v>18.531645000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.100000</v>
+        <v>1004.1</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.326000</v>
+        <v>-142.32599999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>66724.644542</v>
+        <v>66724.644541999995</v>
       </c>
       <c r="BE13" s="1">
         <v>18.534623</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.954000</v>
+        <v>-226.95400000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>66734.835344</v>
+        <v>66734.835344000006</v>
       </c>
       <c r="BJ13" s="1">
         <v>18.537454</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.120000</v>
+        <v>1129.1199999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.345000</v>
+        <v>-362.34500000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>66745.522644</v>
+        <v>66745.522643999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.540423</v>
+        <v>18.540423000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1261.260000</v>
+        <v>1261.26</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-570.127000</v>
+        <v>-570.12699999999995</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>66756.436154</v>
+        <v>66756.436153999995</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.543454</v>
+        <v>18.543454000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.960000</v>
+        <v>1408.96</v>
       </c>
       <c r="BV13" s="1">
-        <v>-790.590000</v>
+        <v>-790.59</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>66767.671524</v>
+        <v>66767.671524000005</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.546575</v>
+        <v>18.546575000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1569.830000</v>
+        <v>1569.83</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1020.750000</v>
+        <v>-1020.75</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>66779.653845</v>
+        <v>66779.653844999993</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.549904</v>
+        <v>18.549904000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1973.630000</v>
+        <v>1973.63</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1556.140000</v>
+        <v>-1556.14</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>66607.728434</v>
+        <v>66607.728434000004</v>
       </c>
       <c r="B14" s="1">
-        <v>18.502147</v>
+        <v>18.502147000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>899.949000</v>
+        <v>899.94899999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.082000</v>
+        <v>-197.08199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>66618.162410</v>
+        <v>66618.162410000004</v>
       </c>
       <c r="G14" s="1">
-        <v>18.505045</v>
+        <v>18.505044999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>917.708000</v>
+        <v>917.70799999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.159000</v>
+        <v>-167.15899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>66628.655275</v>
+        <v>66628.655274999997</v>
       </c>
       <c r="L14" s="1">
-        <v>18.507960</v>
+        <v>18.507960000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>940.629000</v>
+        <v>940.62900000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.220000</v>
+        <v>-120.22</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>66639.554397</v>
@@ -3610,270 +4026,270 @@
         <v>18.510987</v>
       </c>
       <c r="R14" s="1">
-        <v>947.352000</v>
+        <v>947.35199999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.683000</v>
+        <v>-104.68300000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>66650.070574</v>
+        <v>66650.070573999998</v>
       </c>
       <c r="V14" s="1">
-        <v>18.513908</v>
+        <v>18.513908000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>954.041000</v>
+        <v>954.04100000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.753300</v>
+        <v>-90.753299999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>66660.506403</v>
+        <v>66660.506403000007</v>
       </c>
       <c r="AA14" s="1">
         <v>18.516807</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.277000</v>
+        <v>961.27700000000004</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.756900</v>
+        <v>-80.756900000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>66670.990307</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.519720</v>
+        <v>18.51972</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.355000</v>
+        <v>966.35500000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.103200</v>
+        <v>-80.103200000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>66681.778333</v>
+        <v>66681.778332999995</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.522716</v>
+        <v>18.522715999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.199000</v>
+        <v>974.19899999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.552300</v>
+        <v>-87.552300000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>66692.538503</v>
+        <v>66692.538503000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.525705</v>
+        <v>18.525704999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.275000</v>
+        <v>983.27499999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.251000</v>
+        <v>-102.251</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>66703.332442</v>
+        <v>66703.332441999999</v>
       </c>
       <c r="AU14" s="1">
         <v>18.528703</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.541000</v>
+        <v>994.54100000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.643000</v>
+        <v>-123.643</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>66714.318331</v>
+        <v>66714.318331000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>18.531755</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.310000</v>
+        <v>-142.31</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>66725.003181</v>
+        <v>66725.003180999993</v>
       </c>
       <c r="BE14" s="1">
         <v>18.534723</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.958000</v>
+        <v>-226.958</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>66735.210318</v>
+        <v>66735.210317999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.537558</v>
+        <v>18.537558000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.100000</v>
+        <v>1129.0999999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.330000</v>
+        <v>-362.33</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>66745.919938</v>
+        <v>66745.919938000006</v>
       </c>
       <c r="BO14" s="1">
         <v>18.540533</v>
       </c>
       <c r="BP14" s="1">
-        <v>1261.310000</v>
+        <v>1261.31</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-570.158000</v>
+        <v>-570.15800000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>66756.850771</v>
+        <v>66756.850770999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.543570</v>
+        <v>18.543569999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.900000</v>
+        <v>1408.9</v>
       </c>
       <c r="BV14" s="1">
-        <v>-790.566000</v>
+        <v>-790.56600000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>66768.092104</v>
+        <v>66768.092103999996</v>
       </c>
       <c r="BY14" s="1">
         <v>18.546692</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1569.900000</v>
+        <v>1569.9</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1020.590000</v>
+        <v>-1020.59</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>66780.170708</v>
+        <v>66780.170708000005</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.550047</v>
+        <v>18.550046999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1972.160000</v>
+        <v>1972.16</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1556.560000</v>
+        <v>-1556.56</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>66608.069816</v>
+        <v>66608.069816000003</v>
       </c>
       <c r="B15" s="1">
-        <v>18.502242</v>
+        <v>18.502241999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>899.912000</v>
+        <v>899.91200000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.246000</v>
+        <v>-197.24600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>66618.851850</v>
+        <v>66618.851850000006</v>
       </c>
       <c r="G15" s="1">
-        <v>18.505237</v>
+        <v>18.505237000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>917.794000</v>
+        <v>917.79399999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.058000</v>
+        <v>-167.05799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>66629.349178</v>
+        <v>66629.349178000004</v>
       </c>
       <c r="L15" s="1">
         <v>18.508153</v>
       </c>
       <c r="M15" s="1">
-        <v>940.607000</v>
+        <v>940.60699999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.139000</v>
+        <v>-120.139</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>66639.903054</v>
+        <v>66639.903053999995</v>
       </c>
       <c r="Q15" s="1">
         <v>18.511084</v>
       </c>
       <c r="R15" s="1">
-        <v>947.370000</v>
+        <v>947.37</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.663000</v>
+        <v>-104.663</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>66650.413279</v>
@@ -3882,3022 +4298,3023 @@
         <v>18.514004</v>
       </c>
       <c r="W15" s="1">
-        <v>953.968000</v>
+        <v>953.96799999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.692400</v>
+        <v>-90.692400000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>66660.852577</v>
+        <v>66660.852576999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.516903</v>
+        <v>18.516902999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.364000</v>
+        <v>961.36400000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.776100</v>
+        <v>-80.7761</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>66671.638083</v>
+        <v>66671.638082999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>18.519899</v>
+        <v>18.519898999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.378000</v>
+        <v>966.37800000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.068500</v>
+        <v>-80.0685</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>66682.163686</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.522823</v>
+        <v>18.522822999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.213000</v>
+        <v>974.21299999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.549700</v>
+        <v>-87.549700000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>66692.953654</v>
+        <v>66692.953653999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.525820</v>
+        <v>18.52582</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.281000</v>
+        <v>983.28099999999995</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.271000</v>
+        <v>-102.271</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>66703.700472</v>
+        <v>66703.700471999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.528806</v>
+        <v>18.528805999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.539000</v>
+        <v>994.53899999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.656000</v>
+        <v>-123.65600000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>66714.708683</v>
+        <v>66714.708683000004</v>
       </c>
       <c r="AZ15" s="1">
-        <v>18.531864</v>
+        <v>18.531863999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.070000</v>
+        <v>1004.07</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.318000</v>
+        <v>-142.31800000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>66725.367940</v>
+        <v>66725.367939999996</v>
       </c>
       <c r="BE15" s="1">
         <v>18.534824</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.949000</v>
+        <v>-226.94900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>66735.636914</v>
+        <v>66735.636914000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.537677</v>
+        <v>18.537676999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.130000</v>
+        <v>1129.1300000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.345000</v>
+        <v>-362.34500000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>66746.341563</v>
+        <v>66746.341562999994</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.540650</v>
+        <v>18.540649999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1261.280000</v>
+        <v>1261.28</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-570.084000</v>
+        <v>-570.08399999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>66757.265075</v>
+        <v>66757.265075000003</v>
       </c>
       <c r="BT15" s="1">
         <v>18.543685</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.910000</v>
+        <v>1408.91</v>
       </c>
       <c r="BV15" s="1">
-        <v>-790.558000</v>
+        <v>-790.55799999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>66768.514016</v>
+        <v>66768.514016000001</v>
       </c>
       <c r="BY15" s="1">
         <v>18.546809</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1569.860000</v>
+        <v>1569.86</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1020.600000</v>
+        <v>-1020.6</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>66780.689026</v>
+        <v>66780.689025999993</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.550191</v>
+        <v>18.550191000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1972.410000</v>
+        <v>1972.41</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1557.860000</v>
+        <v>-1557.86</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>66608.753799</v>
+        <v>66608.753798999998</v>
       </c>
       <c r="B16" s="1">
-        <v>18.502432</v>
+        <v>18.502431999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>899.882000</v>
+        <v>899.88199999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.097000</v>
+        <v>-197.09700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>66619.194585</v>
+        <v>66619.194585000005</v>
       </c>
       <c r="G16" s="1">
-        <v>18.505332</v>
+        <v>18.505331999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>917.785000</v>
+        <v>917.78499999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.392000</v>
+        <v>-167.392</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>66629.717211</v>
+        <v>66629.717210999996</v>
       </c>
       <c r="L16" s="1">
-        <v>18.508255</v>
+        <v>18.508254999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>940.488000</v>
+        <v>940.48800000000006</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.348000</v>
+        <v>-120.348</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>66640.251740</v>
+        <v>66640.251740000007</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.511181</v>
+        <v>18.511181000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>947.377000</v>
+        <v>947.37699999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.663000</v>
+        <v>-104.663</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>66651.075438</v>
       </c>
       <c r="V16" s="1">
-        <v>18.514188</v>
+        <v>18.514188000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>953.997000</v>
+        <v>953.99699999999996</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.786500</v>
+        <v>-90.786500000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>66661.522212</v>
+        <v>66661.522211999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.517090</v>
+        <v>18.51709</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.340000</v>
+        <v>961.34</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.706700</v>
+        <v>-80.706699999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>66672.020535</v>
+        <v>66672.020535000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.520006</v>
+        <v>18.520005999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.312000</v>
+        <v>966.31200000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.107700</v>
+        <v>-80.107699999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>66682.514853</v>
+        <v>66682.514853000001</v>
       </c>
       <c r="AK16" s="1">
         <v>18.522921</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.213000</v>
+        <v>974.21299999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.571400</v>
+        <v>-87.571399999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>66693.336576</v>
+        <v>66693.336576000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.525927</v>
+        <v>18.525926999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.296000</v>
+        <v>983.29600000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.255000</v>
+        <v>-102.255</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>66704.063048</v>
+        <v>66704.063047999996</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.528906</v>
+        <v>18.528905999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.534000</v>
+        <v>994.53399999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.655000</v>
+        <v>-123.655</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>66715.065802</v>
+        <v>66715.065801999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.531963</v>
+        <v>18.531963000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.335000</v>
+        <v>-142.33500000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>66725.789307</v>
+        <v>66725.789306999999</v>
       </c>
       <c r="BE16" s="1">
         <v>18.534941</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.962000</v>
+        <v>-226.96199999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>66735.986574</v>
+        <v>66735.986573999995</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.537774</v>
+        <v>18.537773999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.110000</v>
+        <v>1129.1099999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.336000</v>
+        <v>-362.33600000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>66746.738337</v>
+        <v>66746.738337000003</v>
       </c>
       <c r="BO16" s="1">
         <v>18.540761</v>
       </c>
       <c r="BP16" s="1">
-        <v>1261.280000</v>
+        <v>1261.28</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-570.169000</v>
+        <v>-570.16899999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>66757.681102</v>
+        <v>66757.681102000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.543800</v>
+        <v>18.543800000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.810000</v>
+        <v>1408.81</v>
       </c>
       <c r="BV16" s="1">
-        <v>-790.506000</v>
+        <v>-790.50599999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>66768.968530</v>
+        <v>66768.968529999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>18.546936</v>
+        <v>18.546935999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1569.660000</v>
+        <v>1569.66</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1020.500000</v>
+        <v>-1020.5</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>66781.207841</v>
+        <v>66781.207840999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.550336</v>
+        <v>18.550336000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1972.110000</v>
+        <v>1972.11</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1557.410000</v>
+        <v>-1557.41</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>66609.097061</v>
+        <v>66609.097060999993</v>
       </c>
       <c r="B17" s="1">
-        <v>18.502527</v>
+        <v>18.502527000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>900.047000</v>
+        <v>900.04700000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.114000</v>
+        <v>-197.114</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>66619.538311</v>
+        <v>66619.538310999997</v>
       </c>
       <c r="G17" s="1">
-        <v>18.505427</v>
+        <v>18.505427000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>917.415000</v>
+        <v>917.41499999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.924000</v>
+        <v>-166.92400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>66630.065897</v>
+        <v>66630.065896999993</v>
       </c>
       <c r="L17" s="1">
-        <v>18.508352</v>
+        <v>18.508351999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.621000</v>
+        <v>940.62099999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.080000</v>
+        <v>-120.08</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>66640.906955</v>
+        <v>66640.906954999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.511363</v>
+        <v>18.511362999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>947.342000</v>
+        <v>947.34199999999998</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.717000</v>
+        <v>-104.717</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>66651.443976</v>
+        <v>66651.443975999995</v>
       </c>
       <c r="V17" s="1">
-        <v>18.514290</v>
+        <v>18.514289999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>954.070000</v>
+        <v>954.07</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.816500</v>
+        <v>-90.816500000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>66661.898145</v>
+        <v>66661.898144999999</v>
       </c>
       <c r="AA17" s="1">
         <v>18.517194</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.316000</v>
+        <v>961.31600000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.750400</v>
+        <v>-80.750399999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>66672.363731</v>
+        <v>66672.363731000005</v>
       </c>
       <c r="AF17" s="1">
         <v>18.520101</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.364000</v>
+        <v>966.36400000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.062600</v>
+        <v>-80.062600000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>66682.863044</v>
+        <v>66682.863043999998</v>
       </c>
       <c r="AK17" s="1">
         <v>18.523018</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.229000</v>
+        <v>974.22900000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.541600</v>
+        <v>-87.541600000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>66693.695175</v>
+        <v>66693.695175000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.526026</v>
+        <v>18.526026000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.285000</v>
+        <v>983.28499999999997</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.269000</v>
+        <v>-102.26900000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>66704.482663</v>
+        <v>66704.482663000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>18.529023</v>
+        <v>18.529022999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.536000</v>
+        <v>994.53599999999994</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.664000</v>
+        <v>-123.664</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>66715.546425</v>
+        <v>66715.546424999993</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.532096</v>
+        <v>18.532095999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.314000</v>
+        <v>-142.31399999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>66726.087900</v>
+        <v>66726.087899999999</v>
       </c>
       <c r="BE17" s="1">
         <v>18.535024</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.923000</v>
+        <v>-226.923</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>66736.364014</v>
+        <v>66736.364014000006</v>
       </c>
       <c r="BJ17" s="1">
         <v>18.537879</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.110000</v>
+        <v>1129.1099999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.340000</v>
+        <v>-362.34</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>66747.162415</v>
+        <v>66747.162414999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.540878</v>
+        <v>18.540877999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1261.250000</v>
+        <v>1261.25</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-570.140000</v>
+        <v>-570.14</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>66758.094240</v>
+        <v>66758.094240000006</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.543915</v>
+        <v>18.543914999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.850000</v>
+        <v>1408.85</v>
       </c>
       <c r="BV17" s="1">
-        <v>-790.582000</v>
+        <v>-790.58199999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>66769.393105</v>
+        <v>66769.393104999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.547054</v>
+        <v>18.547053999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1569.720000</v>
+        <v>1569.72</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1020.690000</v>
+        <v>-1020.69</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>66781.758903</v>
+        <v>66781.758902999994</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.550489</v>
+        <v>18.550488999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1972.190000</v>
+        <v>1972.19</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1556.140000</v>
+        <v>-1556.14</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>66609.440295</v>
+        <v>66609.440294999993</v>
       </c>
       <c r="B18" s="1">
-        <v>18.502622</v>
+        <v>18.502621999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>899.903000</v>
+        <v>899.90300000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.123000</v>
+        <v>-197.12299999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>66620.194026</v>
+        <v>66620.194025999997</v>
       </c>
       <c r="G18" s="1">
         <v>18.505609</v>
       </c>
       <c r="H18" s="1">
-        <v>917.782000</v>
+        <v>917.78200000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.629000</v>
+        <v>-167.62899999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>66630.753385</v>
+        <v>66630.753385000004</v>
       </c>
       <c r="L18" s="1">
         <v>18.508543</v>
       </c>
       <c r="M18" s="1">
-        <v>940.504000</v>
+        <v>940.50400000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.166000</v>
+        <v>-120.166</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>66641.299788</v>
+        <v>66641.299788000004</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.511472</v>
+        <v>18.511472000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>947.341000</v>
+        <v>947.34100000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.696000</v>
+        <v>-104.696</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>66651.788220</v>
+        <v>66651.788220000002</v>
       </c>
       <c r="V18" s="1">
-        <v>18.514386</v>
+        <v>18.514385999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>953.959000</v>
+        <v>953.95899999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.722200</v>
+        <v>-90.722200000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>66662.249310</v>
+        <v>66662.249309999999</v>
       </c>
       <c r="AA18" s="1">
         <v>18.517291</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.374000</v>
+        <v>961.37400000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.731500</v>
+        <v>-80.731499999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>66672.714432</v>
+        <v>66672.714431999993</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.520198</v>
+        <v>18.520198000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.338000</v>
+        <v>966.33799999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.050500</v>
+        <v>-80.0505</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>66683.288611</v>
+        <v>66683.288610999996</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.523136</v>
+        <v>18.523136000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.204000</v>
+        <v>974.20399999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.549900</v>
+        <v>-87.549899999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>66694.108873</v>
+        <v>66694.108873000005</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.526141</v>
+        <v>18.526140999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.281000</v>
+        <v>983.28099999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.263000</v>
+        <v>-102.26300000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>66704.790215</v>
+        <v>66704.790215000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.529108</v>
+        <v>18.529108000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.549000</v>
+        <v>994.54899999999998</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.643000</v>
+        <v>-123.643</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>66715.782520</v>
+        <v>66715.782519999993</v>
       </c>
       <c r="AZ18" s="1">
         <v>18.532162</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.060000</v>
+        <v>1004.06</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.319000</v>
+        <v>-142.31899999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>66726.450013</v>
+        <v>66726.450012999994</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.535125</v>
+        <v>18.535125000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.280000</v>
+        <v>1049.28</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.938000</v>
+        <v>-226.93799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>66736.738492</v>
+        <v>66736.738492000004</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.537983</v>
+        <v>18.537983000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.130000</v>
+        <v>1129.1300000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.344000</v>
+        <v>-362.34399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>66747.555742</v>
+        <v>66747.555741999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.540988</v>
+        <v>18.540987999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1261.250000</v>
+        <v>1261.25</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-570.151000</v>
+        <v>-570.15099999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>66758.513855</v>
+        <v>66758.513854999997</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.544032</v>
+        <v>18.544032000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.800000</v>
+        <v>1408.8</v>
       </c>
       <c r="BV18" s="1">
-        <v>-790.559000</v>
+        <v>-790.55899999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>66769.832593</v>
+        <v>66769.832592999999</v>
       </c>
       <c r="BY18" s="1">
         <v>18.547176</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1569.760000</v>
+        <v>1569.76</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1020.700000</v>
+        <v>-1020.7</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>66782.292561</v>
+        <v>66782.292560999995</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.550637</v>
+        <v>18.550636999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1972.150000</v>
+        <v>1972.15</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1557.680000</v>
+        <v>-1557.68</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>66610.092004</v>
+        <v>66610.092004000006</v>
       </c>
       <c r="B19" s="1">
         <v>18.502803</v>
       </c>
       <c r="C19" s="1">
-        <v>900.153000</v>
+        <v>900.15300000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.239000</v>
+        <v>-197.239</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>66620.573462</v>
       </c>
       <c r="G19" s="1">
-        <v>18.505715</v>
+        <v>18.505714999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.153000</v>
+        <v>917.15300000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.199000</v>
+        <v>-167.19900000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>66631.100058</v>
+        <v>66631.100057999996</v>
       </c>
       <c r="L19" s="1">
-        <v>18.508639</v>
+        <v>18.508638999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>940.627000</v>
+        <v>940.62699999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.165000</v>
+        <v>-120.16500000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>66641.646988</v>
+        <v>66641.646987999993</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.511569</v>
+        <v>18.511569000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>947.337000</v>
+        <v>947.33699999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.683000</v>
+        <v>-104.68300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>66652.139408</v>
+        <v>66652.139408000003</v>
       </c>
       <c r="V19" s="1">
-        <v>18.514483</v>
+        <v>18.514482999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>954.044000</v>
+        <v>954.04399999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.716400</v>
+        <v>-90.716399999999993</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>66662.597998</v>
+        <v>66662.597997999997</v>
       </c>
       <c r="AA19" s="1">
         <v>18.517388</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.413000</v>
+        <v>961.41300000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.790300</v>
+        <v>-80.790300000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>66673.136040</v>
+        <v>66673.136039999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.520316</v>
+        <v>18.520316000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.310000</v>
+        <v>966.31</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.100000</v>
+        <v>-80.099999999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>66683.559927</v>
+        <v>66683.559926999995</v>
       </c>
       <c r="AK19" s="1">
         <v>18.523211</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.207000</v>
+        <v>974.20699999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.546100</v>
+        <v>-87.546099999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>66694.419828</v>
+        <v>66694.419827999998</v>
       </c>
       <c r="AP19" s="1">
         <v>18.526228</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.300000</v>
+        <v>983.3</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.260000</v>
+        <v>-102.26</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>66705.157718</v>
+        <v>66705.157718000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.529210</v>
+        <v>18.529209999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.568000</v>
+        <v>994.56799999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.660000</v>
+        <v>-123.66</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>66716.142647</v>
+        <v>66716.142647000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.532262</v>
+        <v>18.532261999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.070000</v>
+        <v>1004.07</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.309000</v>
+        <v>-142.309</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>66726.809114</v>
+        <v>66726.809114000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.535225</v>
+        <v>18.535225000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.250000</v>
+        <v>1049.25</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.947000</v>
+        <v>-226.947</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>66737.507291</v>
+        <v>66737.507291000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.538196</v>
+        <v>18.538195999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.130000</v>
+        <v>1129.1300000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.334000</v>
+        <v>-362.334</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>66747.980846</v>
+        <v>66747.980846000006</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.541106</v>
+        <v>18.541105999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1261.250000</v>
+        <v>1261.25</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-570.132000</v>
+        <v>-570.13199999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>66758.944417</v>
+        <v>66758.944417000006</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.544151</v>
+        <v>18.544150999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.810000</v>
+        <v>1408.81</v>
       </c>
       <c r="BV19" s="1">
-        <v>-790.593000</v>
+        <v>-790.59299999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>66770.253700</v>
+        <v>66770.253700000001</v>
       </c>
       <c r="BY19" s="1">
         <v>18.547293</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1569.750000</v>
+        <v>1569.75</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1020.610000</v>
+        <v>-1020.61</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>66782.809391</v>
+        <v>66782.809391000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.550780</v>
+        <v>18.55078</v>
       </c>
       <c r="CE19" s="1">
-        <v>1973.570000</v>
+        <v>1973.57</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1557.870000</v>
+        <v>-1557.87</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>66610.465491</v>
+        <v>66610.465490999995</v>
       </c>
       <c r="B20" s="1">
         <v>18.502907</v>
       </c>
       <c r="C20" s="1">
-        <v>899.986000</v>
+        <v>899.98599999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.165000</v>
+        <v>-197.16499999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>66620.919210</v>
+        <v>66620.919209999993</v>
       </c>
       <c r="G20" s="1">
-        <v>18.505811</v>
+        <v>18.505811000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>917.722000</v>
+        <v>917.72199999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.189000</v>
+        <v>-167.18899999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>66631.444807</v>
+        <v>66631.444807000007</v>
       </c>
       <c r="L20" s="1">
-        <v>18.508735</v>
+        <v>18.508735000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>940.538000</v>
+        <v>940.53800000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.188000</v>
+        <v>-120.188</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>66641.993699</v>
+        <v>66641.993698999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.511665</v>
+        <v>18.511665000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>947.379000</v>
+        <v>947.37900000000002</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.662000</v>
+        <v>-104.66200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>66652.560460</v>
+        <v>66652.560459999993</v>
       </c>
       <c r="V20" s="1">
-        <v>18.514600</v>
+        <v>18.514600000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>954.111000</v>
+        <v>954.11099999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.612300</v>
+        <v>-90.612300000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>66663.027535</v>
+        <v>66663.027535000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.517508</v>
+        <v>18.517507999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.349000</v>
+        <v>961.34900000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.766500</v>
+        <v>-80.766499999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>66673.413761</v>
+        <v>66673.413761000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.520393</v>
+        <v>18.520392999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.340000</v>
+        <v>966.34</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.118800</v>
+        <v>-80.118799999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>66683.908612</v>
+        <v>66683.908611999999</v>
       </c>
       <c r="AK20" s="1">
         <v>18.523308</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.184000</v>
+        <v>974.18399999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.530400</v>
+        <v>-87.5304</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>66694.778932</v>
+        <v>66694.778932000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.526327</v>
+        <v>18.526326999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.295000</v>
+        <v>983.29499999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.249000</v>
+        <v>-102.249</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>66705.519612</v>
+        <v>66705.519612000004</v>
       </c>
       <c r="AU20" s="1">
         <v>18.529311</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.532000</v>
+        <v>994.53200000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.641000</v>
+        <v>-123.64100000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>66716.859862</v>
+        <v>66716.859861999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.532461</v>
+        <v>18.532461000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.298000</v>
+        <v>-142.298</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>66727.533240</v>
+        <v>66727.533240000004</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.535426</v>
+        <v>18.535426000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.945000</v>
+        <v>-226.94499999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>66737.884283</v>
+        <v>66737.884283000007</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.538301</v>
+        <v>18.538301000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.090000</v>
+        <v>1129.0899999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.330000</v>
+        <v>-362.33</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>66748.376621</v>
+        <v>66748.376621000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.541216</v>
+        <v>18.541215999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1261.240000</v>
+        <v>1261.24</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-570.162000</v>
+        <v>-570.16200000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>66759.374919</v>
+        <v>66759.374918999994</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.544271</v>
+        <v>18.544270999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.790000</v>
+        <v>1408.79</v>
       </c>
       <c r="BV20" s="1">
-        <v>-790.551000</v>
+        <v>-790.55100000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>66770.984271</v>
+        <v>66770.984270999994</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.547496</v>
+        <v>18.547495999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1569.890000</v>
+        <v>1569.89</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1020.540000</v>
+        <v>-1020.54</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>66783.582190</v>
+        <v>66783.582190000001</v>
       </c>
       <c r="CD20" s="1">
         <v>18.550995</v>
       </c>
       <c r="CE20" s="1">
-        <v>1973.550000</v>
+        <v>1973.55</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1556.230000</v>
+        <v>-1556.23</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>66610.809253</v>
+        <v>66610.809252999999</v>
       </c>
       <c r="B21" s="1">
         <v>18.503003</v>
       </c>
       <c r="C21" s="1">
-        <v>899.947000</v>
+        <v>899.947</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.095000</v>
+        <v>-197.095</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>66621.263438</v>
+        <v>66621.263437999994</v>
       </c>
       <c r="G21" s="1">
-        <v>18.505907</v>
+        <v>18.505907000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>917.712000</v>
+        <v>917.71199999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.454000</v>
+        <v>-167.45400000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>66631.860423</v>
+        <v>66631.860423000006</v>
       </c>
       <c r="L21" s="1">
-        <v>18.508850</v>
+        <v>18.508849999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>940.673000</v>
+        <v>940.673</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.215000</v>
+        <v>-120.215</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>66642.415290</v>
+        <v>66642.415290000004</v>
       </c>
       <c r="Q21" s="1">
         <v>18.511782</v>
       </c>
       <c r="R21" s="1">
-        <v>947.355000</v>
+        <v>947.35500000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.673000</v>
+        <v>-104.673</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>66652.839746</v>
+        <v>66652.839745999998</v>
       </c>
       <c r="V21" s="1">
         <v>18.514678</v>
       </c>
       <c r="W21" s="1">
-        <v>954.042000</v>
+        <v>954.04200000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.677300</v>
+        <v>-90.677300000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>66663.304302</v>
+        <v>66663.304302000004</v>
       </c>
       <c r="AA21" s="1">
         <v>18.517585</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.407000</v>
+        <v>961.40700000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.793100</v>
+        <v>-80.793099999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>66673.761456</v>
+        <v>66673.761455999993</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.520489</v>
+        <v>18.520489000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.350000</v>
+        <v>966.35</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.125300</v>
+        <v>-80.125299999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>66684.257793</v>
+        <v>66684.257792999997</v>
       </c>
       <c r="AK21" s="1">
         <v>18.523405</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.200000</v>
+        <v>974.2</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.543600</v>
+        <v>-87.543599999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>66695.139029</v>
+        <v>66695.139028999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.526428</v>
+        <v>18.526427999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.282000</v>
+        <v>983.28200000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.253000</v>
+        <v>-102.253</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>66706.252394</v>
+        <v>66706.252393999996</v>
       </c>
       <c r="AU21" s="1">
         <v>18.529515</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.542000</v>
+        <v>994.54200000000003</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.658000</v>
+        <v>-123.658</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>66717.217446</v>
+        <v>66717.217445999995</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.532560</v>
+        <v>18.53256</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.080000</v>
+        <v>1004.08</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.305000</v>
+        <v>-142.30500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>66727.923593</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.535534</v>
+        <v>18.535533999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.240000</v>
+        <v>1049.24</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.949000</v>
+        <v>-226.94900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>66738.264187</v>
+        <v>66738.264186999993</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.538407</v>
+        <v>18.538406999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.120000</v>
+        <v>1129.1199999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.346000</v>
+        <v>-362.346</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>66748.797725</v>
+        <v>66748.797724999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.541333</v>
+        <v>18.541333000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-570.153000</v>
+        <v>-570.15300000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>66760.083705</v>
+        <v>66760.083704999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.544468</v>
+        <v>18.544467999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.730000</v>
+        <v>1408.73</v>
       </c>
       <c r="BV21" s="1">
-        <v>-790.623000</v>
+        <v>-790.62300000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>66771.157904</v>
+        <v>66771.157904000007</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.547544</v>
+        <v>18.547543999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1569.650000</v>
+        <v>1569.65</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1020.690000</v>
+        <v>-1020.69</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>66783.875295</v>
+        <v>66783.875295000005</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.551076</v>
+        <v>18.551075999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>1971.940000</v>
+        <v>1971.94</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1557.090000</v>
+        <v>-1557.09</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>66611.149970</v>
+        <v>66611.149969999999</v>
       </c>
       <c r="B22" s="1">
         <v>18.503097</v>
       </c>
       <c r="C22" s="1">
-        <v>900.104000</v>
+        <v>900.10400000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.184000</v>
+        <v>-197.184</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>66621.694420</v>
+        <v>66621.69442</v>
       </c>
       <c r="G22" s="1">
-        <v>18.506026</v>
+        <v>18.506025999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>917.173000</v>
+        <v>917.173</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.401000</v>
+        <v>-167.40100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>66632.139207</v>
       </c>
       <c r="L22" s="1">
-        <v>18.508928</v>
+        <v>18.508928000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>940.371000</v>
+        <v>940.37099999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.138000</v>
+        <v>-120.13800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>66642.704457</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.511862</v>
+        <v>18.511862000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>947.409000</v>
+        <v>947.40899999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.666000</v>
+        <v>-104.666</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>66653.183932</v>
       </c>
       <c r="V22" s="1">
-        <v>18.514773</v>
+        <v>18.514773000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>954.048000</v>
+        <v>954.048</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.676800</v>
+        <v>-90.6768</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>66663.653981</v>
+        <v>66663.653980999996</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.517682</v>
+        <v>18.517682000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.282000</v>
+        <v>961.28200000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.774600</v>
+        <v>-80.774600000000007</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>66674.100757</v>
+        <v>66674.100756999993</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.520584</v>
+        <v>18.520583999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.346000</v>
+        <v>966.346</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.135800</v>
+        <v>-80.135800000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>66684.954673</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.523599</v>
+        <v>18.523599000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.218000</v>
+        <v>974.21799999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.559900</v>
+        <v>-87.559899999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>66695.859715</v>
+        <v>66695.859714999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.526628</v>
+        <v>18.526627999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.289000</v>
+        <v>983.28899999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>66706.639796</v>
+        <v>66706.639796000003</v>
       </c>
       <c r="AU22" s="1">
         <v>18.529622</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.552000</v>
+        <v>994.55200000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.659000</v>
+        <v>-123.65900000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>66717.576577</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.532660</v>
+        <v>18.53266</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.320000</v>
+        <v>-142.32</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>66728.284483</v>
+        <v>66728.284482999996</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.535635</v>
+        <v>18.535634999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.935000</v>
+        <v>-226.935</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>66738.952174</v>
+        <v>66738.952174000005</v>
       </c>
       <c r="BJ22" s="1">
         <v>18.538598</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.110000</v>
+        <v>1129.1099999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.338000</v>
+        <v>-362.33800000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>66749.504560</v>
+        <v>66749.504560000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.541529</v>
+        <v>18.541529000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1261.210000</v>
+        <v>1261.21</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-570.141000</v>
+        <v>-570.14099999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>66760.219101</v>
+        <v>66760.219100999995</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.544505</v>
+        <v>18.544505000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.730000</v>
+        <v>1408.73</v>
       </c>
       <c r="BV22" s="1">
-        <v>-790.530000</v>
+        <v>-790.53</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>66771.583470</v>
+        <v>66771.583469999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.547662</v>
+        <v>18.547661999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1569.620000</v>
+        <v>1569.62</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1020.700000</v>
+        <v>-1020.7</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>66784.410975</v>
+        <v>66784.410975000006</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.551225</v>
+        <v>18.551224999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1974.030000</v>
+        <v>1974.03</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1557.420000</v>
+        <v>-1557.42</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>66611.577522</v>
+        <v>66611.577522000007</v>
       </c>
       <c r="B23" s="1">
-        <v>18.503216</v>
+        <v>18.503215999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>900.031000</v>
+        <v>900.03099999999995</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.149000</v>
+        <v>-197.149</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>66621.960772</v>
+        <v>66621.960772000006</v>
       </c>
       <c r="G23" s="1">
-        <v>18.506100</v>
+        <v>18.5061</v>
       </c>
       <c r="H23" s="1">
-        <v>917.362000</v>
+        <v>917.36199999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.254000</v>
+        <v>-167.25399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>66632.483894</v>
+        <v>66632.483894000005</v>
       </c>
       <c r="L23" s="1">
-        <v>18.509023</v>
+        <v>18.509022999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>940.576000</v>
+        <v>940.57600000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.160000</v>
+        <v>-120.16</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>66643.051656</v>
+        <v>66643.051655999996</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.511959</v>
+        <v>18.511959000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>947.393000</v>
+        <v>947.39300000000003</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.663000</v>
+        <v>-104.663</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>66653.527659</v>
+        <v>66653.527658999999</v>
       </c>
       <c r="V23" s="1">
-        <v>18.514869</v>
+        <v>18.514869000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>953.945000</v>
+        <v>953.94500000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.660400</v>
+        <v>-90.660399999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>66664.342924</v>
+        <v>66664.342923999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.517873</v>
+        <v>18.517873000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.379000</v>
+        <v>961.37900000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.788800</v>
+        <v>-80.788799999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>66674.789063</v>
+        <v>66674.789063000004</v>
       </c>
       <c r="AF23" s="1">
         <v>18.520775</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.512000</v>
+        <v>966.51199999999994</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.133500</v>
+        <v>-80.133499999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>66685.303856</v>
+        <v>66685.303855999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.523696</v>
+        <v>18.523696000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.207000</v>
+        <v>974.20699999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.568100</v>
+        <v>-87.568100000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>66696.218354</v>
+        <v>66696.218353999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.526727</v>
+        <v>18.526727000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.307000</v>
+        <v>983.30700000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.249000</v>
+        <v>-102.249</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>66707.002975</v>
+        <v>66707.002974999996</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.529723</v>
+        <v>18.529723000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.535000</v>
+        <v>994.53499999999997</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.629000</v>
+        <v>-123.629</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>66718.242214</v>
+        <v>66718.242213999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.532845</v>
+        <v>18.532844999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.321000</v>
+        <v>-142.321</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>66728.971144</v>
+        <v>66728.971143999996</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.535825</v>
+        <v>18.535824999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.935000</v>
+        <v>-226.935</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>66739.420393</v>
+        <v>66739.420392999993</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.538728</v>
+        <v>18.538727999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.100000</v>
+        <v>1129.0999999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.328000</v>
+        <v>-362.32799999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>66750.038219</v>
+        <v>66750.038218999995</v>
       </c>
       <c r="BO23" s="1">
         <v>18.541677</v>
       </c>
       <c r="BP23" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-570.146000</v>
+        <v>-570.14599999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>66760.655581</v>
+        <v>66760.655580999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.544627</v>
+        <v>18.544626999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.650000</v>
+        <v>1408.65</v>
       </c>
       <c r="BV23" s="1">
-        <v>-790.536000</v>
+        <v>-790.53599999999994</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>66772.030530</v>
+        <v>66772.030530000004</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.547786</v>
+        <v>18.547785999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1569.630000</v>
+        <v>1569.63</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1020.670000</v>
+        <v>-1020.67</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>66784.951117</v>
+        <v>66784.951117000004</v>
       </c>
       <c r="CD23" s="1">
         <v>18.551375</v>
       </c>
       <c r="CE23" s="1">
-        <v>1972.650000</v>
+        <v>1972.65</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1555.950000</v>
+        <v>-1555.95</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>66611.850321</v>
+        <v>66611.850321000005</v>
       </c>
       <c r="B24" s="1">
-        <v>18.503292</v>
+        <v>18.503291999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>899.934000</v>
+        <v>899.93399999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.122000</v>
+        <v>-197.12200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>66622.304041</v>
+        <v>66622.304040999996</v>
       </c>
       <c r="G24" s="1">
-        <v>18.506196</v>
+        <v>18.506195999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>917.429000</v>
+        <v>917.42899999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.695000</v>
+        <v>-167.69499999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>66632.827634</v>
+        <v>66632.827634000001</v>
       </c>
       <c r="L24" s="1">
-        <v>18.509119</v>
+        <v>18.509118999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>940.540000</v>
+        <v>940.54</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.087000</v>
+        <v>-120.087</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>66643.396872</v>
+        <v>66643.396871999998</v>
       </c>
       <c r="Q24" s="1">
         <v>18.512055</v>
       </c>
       <c r="R24" s="1">
-        <v>947.318000</v>
+        <v>947.31799999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.690000</v>
+        <v>-104.69</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>66654.212137</v>
+        <v>66654.212136999995</v>
       </c>
       <c r="V24" s="1">
-        <v>18.515059</v>
+        <v>18.515059000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>954.010000</v>
+        <v>954.01</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.632100</v>
+        <v>-90.632099999999994</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>66664.696571</v>
+        <v>66664.696570999993</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.517971</v>
+        <v>18.517970999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.355000</v>
+        <v>961.35500000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.840100</v>
+        <v>-80.840100000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>66675.132894</v>
+        <v>66675.132893999995</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.520870</v>
+        <v>18.520869999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.405000</v>
+        <v>966.40499999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.037800</v>
+        <v>-80.037800000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>66685.648080</v>
+        <v>66685.648079999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.523791</v>
+        <v>18.523790999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.225000</v>
+        <v>974.22500000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.561900</v>
+        <v>-87.561899999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>66696.579411</v>
+        <v>66696.579410999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.526828</v>
+        <v>18.526827999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.288000</v>
+        <v>983.28800000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.255000</v>
+        <v>-102.255</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>66707.678423</v>
+        <v>66707.678423000005</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.529911</v>
+        <v>18.529910999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.550000</v>
+        <v>994.55</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.637000</v>
+        <v>-123.637</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>66718.651951</v>
+        <v>66718.651951000007</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.532959</v>
+        <v>18.532959000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.305000</v>
+        <v>-142.30500000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>66729.367544</v>
+        <v>66729.367543999993</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.535935</v>
+        <v>18.535934999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.260000</v>
+        <v>1049.26</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.946000</v>
+        <v>-226.946</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>66739.808728</v>
+        <v>66739.808728000004</v>
       </c>
       <c r="BJ24" s="1">
         <v>18.538836</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.110000</v>
+        <v>1129.1099999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.312000</v>
+        <v>-362.31200000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>66750.440971</v>
+        <v>66750.440971000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.541789</v>
+        <v>18.541789000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1261.270000</v>
+        <v>1261.27</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-570.125000</v>
+        <v>-570.125</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>66761.084621</v>
+        <v>66761.084621000002</v>
       </c>
       <c r="BT24" s="1">
         <v>18.544746</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.700000</v>
+        <v>1408.7</v>
       </c>
       <c r="BV24" s="1">
-        <v>-790.553000</v>
+        <v>-790.553</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>66772.460397</v>
+        <v>66772.460397000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.547906</v>
+        <v>18.547906000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1569.690000</v>
+        <v>1569.69</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1020.790000</v>
+        <v>-1020.79</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>66785.492749</v>
+        <v>66785.492748999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.551526</v>
+        <v>18.551525999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1972.840000</v>
+        <v>1972.84</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1558.020000</v>
+        <v>-1558.02</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>66612.192066</v>
+        <v>66612.192066000003</v>
       </c>
       <c r="B25" s="1">
         <v>18.503387</v>
       </c>
       <c r="C25" s="1">
-        <v>899.931000</v>
+        <v>899.93100000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.074000</v>
+        <v>-197.07400000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>66622.646741</v>
+        <v>66622.646741000004</v>
       </c>
       <c r="G25" s="1">
-        <v>18.506291</v>
+        <v>18.506291000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>917.712000</v>
+        <v>917.71199999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.951000</v>
+        <v>-167.95099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>66633.521526</v>
+        <v>66633.521525999997</v>
       </c>
       <c r="L25" s="1">
-        <v>18.509312</v>
+        <v>18.509312000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>940.456000</v>
+        <v>940.45600000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.196000</v>
+        <v>-120.196</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>66644.098216</v>
+        <v>66644.098215999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.512250</v>
+        <v>18.512250000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>947.339000</v>
+        <v>947.33900000000006</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.672000</v>
+        <v>-104.672</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>66654.554873</v>
+        <v>66654.554873000001</v>
       </c>
       <c r="V25" s="1">
-        <v>18.515154</v>
+        <v>18.515153999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>954.079000</v>
+        <v>954.07899999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.710900</v>
+        <v>-90.710899999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>66665.046786</v>
+        <v>66665.046786000006</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.518069</v>
+        <v>18.518069000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.412000</v>
+        <v>961.41200000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.790900</v>
+        <v>-80.790899999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>66675.478111</v>
+        <v>66675.478111000004</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.520966</v>
+        <v>18.520966000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.363000</v>
+        <v>966.36300000000006</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.840600</v>
+        <v>-79.840599999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>66686.308753</v>
+        <v>66686.308753000005</v>
       </c>
       <c r="AK25" s="1">
         <v>18.523975</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.218000</v>
+        <v>974.21799999999996</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.532500</v>
+        <v>-87.532499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>66697.243554</v>
+        <v>66697.243554000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.527012</v>
+        <v>18.527011999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.288000</v>
+        <v>983.28800000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.254000</v>
+        <v>-102.254</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>66708.130774</v>
+        <v>66708.130774000005</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.530036</v>
+        <v>18.530035999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.554000</v>
+        <v>994.55399999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.651000</v>
+        <v>-123.651</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>66719.038788</v>
+        <v>66719.038788000005</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.533066</v>
+        <v>18.533066000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.080000</v>
+        <v>1004.08</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.303000</v>
+        <v>-142.303</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>66729.757303</v>
+        <v>66729.757303000006</v>
       </c>
       <c r="BE25" s="1">
         <v>18.536044</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.931000</v>
+        <v>-226.93100000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>66740.184201</v>
+        <v>66740.184200999996</v>
       </c>
       <c r="BJ25" s="1">
-        <v>18.538940</v>
+        <v>18.53894</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.130000</v>
+        <v>1129.1300000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.330000</v>
+        <v>-362.33</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>66750.866538</v>
+        <v>66750.866538000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.541907</v>
+        <v>18.541906999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1261.240000</v>
+        <v>1261.24</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-570.113000</v>
+        <v>-570.11300000000006</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>66761.495309</v>
+        <v>66761.495309000005</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.544860</v>
+        <v>18.54486</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.620000</v>
+        <v>1408.62</v>
       </c>
       <c r="BV25" s="1">
-        <v>-790.583000</v>
+        <v>-790.58299999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>66772.881965</v>
+        <v>66772.881964999993</v>
       </c>
       <c r="BY25" s="1">
-        <v>18.548023</v>
+        <v>18.548023000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1569.830000</v>
+        <v>1569.83</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1020.650000</v>
+        <v>-1020.65</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>66786.031933</v>
+        <v>66786.031933000006</v>
       </c>
       <c r="CD25" s="1">
         <v>18.551676</v>
       </c>
       <c r="CE25" s="1">
-        <v>1973.550000</v>
+        <v>1973.55</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1556.360000</v>
+        <v>-1556.36</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>66612.564593</v>
+        <v>66612.564593000003</v>
       </c>
       <c r="B26" s="1">
-        <v>18.503490</v>
+        <v>18.503489999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>899.998000</v>
+        <v>899.99800000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.984000</v>
+        <v>-196.98400000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>66623.339186</v>
+        <v>66623.339185999997</v>
       </c>
       <c r="G26" s="1">
-        <v>18.506483</v>
+        <v>18.506482999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>917.406000</v>
+        <v>917.40599999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.358000</v>
+        <v>-167.358</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>66633.867765</v>
+        <v>66633.867765000003</v>
       </c>
       <c r="L26" s="1">
-        <v>18.509408</v>
+        <v>18.509408000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>940.506000</v>
+        <v>940.50599999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.099000</v>
+        <v>-120.099</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>66644.446439</v>
+        <v>66644.446439000007</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.512346</v>
+        <v>18.512346000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>947.352000</v>
+        <v>947.35199999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.640000</v>
+        <v>-104.64</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>66654.898602</v>
+        <v>66654.898602000001</v>
       </c>
       <c r="V26" s="1">
-        <v>18.515250</v>
+        <v>18.515250000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>953.980000</v>
+        <v>953.98</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.650600</v>
+        <v>-90.650599999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>66665.703452</v>
+        <v>66665.703452000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.518251</v>
+        <v>18.518250999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.378000</v>
+        <v>961.37800000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.762500</v>
+        <v>-80.762500000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>66676.125886</v>
+        <v>66676.125885999994</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.521146</v>
+        <v>18.521146000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.292000</v>
+        <v>966.29200000000003</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.166300</v>
+        <v>-80.166300000000007</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>66686.694174</v>
+        <v>66686.694174000004</v>
       </c>
       <c r="AK26" s="1">
         <v>18.524082</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.215000</v>
+        <v>974.21500000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.554500</v>
+        <v>-87.554500000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>66697.711280</v>
+        <v>66697.711280000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.527142</v>
+        <v>18.527142000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.284000</v>
+        <v>983.28399999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.265000</v>
+        <v>-102.265</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>66708.496786</v>
+        <v>66708.496786000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.530138</v>
+        <v>18.530138000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.559000</v>
+        <v>994.55899999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.655000</v>
+        <v>-123.655</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>66719.397859</v>
+        <v>66719.397859000004</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.533166</v>
+        <v>18.533166000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.090000</v>
+        <v>1004.09</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.313000</v>
+        <v>-142.31299999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>66730.116405</v>
+        <v>66730.116404999993</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.536143</v>
+        <v>18.536142999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.270000</v>
+        <v>1049.27</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.928000</v>
+        <v>-226.928</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>66740.606824</v>
+        <v>66740.606824000002</v>
       </c>
       <c r="BJ26" s="1">
         <v>18.539057</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.100000</v>
+        <v>1129.0999999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.310000</v>
+        <v>-362.31</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>66751.246969</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.542013</v>
+        <v>18.542013000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1261.220000</v>
+        <v>1261.22</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-570.129000</v>
+        <v>-570.12900000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>66761.926828</v>
+        <v>66761.926827999996</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.544980</v>
+        <v>18.544979999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.610000</v>
+        <v>1408.61</v>
       </c>
       <c r="BV26" s="1">
-        <v>-790.591000</v>
+        <v>-790.59100000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>66773.303566</v>
+        <v>66773.303566000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.548140</v>
+        <v>18.54814</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1569.720000</v>
+        <v>1569.72</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1020.520000</v>
+        <v>-1020.52</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>66786.569099</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.551825</v>
+        <v>18.551825000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1971.850000</v>
+        <v>1971.85</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1556.790000</v>
+        <v>-1556.79</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>